--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrrc4b-Ptprs.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>0.7927877245533332</v>
+        <v>1.086568756624</v>
       </c>
       <c r="R2">
-        <v>7.135089520979999</v>
+        <v>9.779118809616</v>
       </c>
       <c r="S2">
-        <v>0.01839214367938998</v>
+        <v>0.02367655104596258</v>
       </c>
       <c r="T2">
-        <v>0.01839214367938998</v>
+        <v>0.02367655104596259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
         <v>11.90931498653067</v>
@@ -635,10 +635,10 @@
         <v>107.183834878776</v>
       </c>
       <c r="S3">
-        <v>0.2762881230013912</v>
+        <v>0.259506361177855</v>
       </c>
       <c r="T3">
-        <v>0.2762881230013913</v>
+        <v>0.259506361177855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>6.027066373033334</v>
+        <v>6.790615116754668</v>
       </c>
       <c r="R4">
-        <v>54.2435973573</v>
+        <v>61.11553605079201</v>
       </c>
       <c r="S4">
-        <v>0.1398238989642576</v>
+        <v>0.1479688648004844</v>
       </c>
       <c r="T4">
-        <v>0.1398238989642576</v>
+        <v>0.1479688648004844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>1.249846723652</v>
+        <v>1.4845202854</v>
       </c>
       <c r="R5">
-        <v>11.248620512868</v>
+        <v>13.3606825686</v>
       </c>
       <c r="S5">
-        <v>0.02899560601997688</v>
+        <v>0.03234799464071365</v>
       </c>
       <c r="T5">
-        <v>0.0289956060199769</v>
+        <v>0.03234799464071366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H6">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I6">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J6">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N6">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P6">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q6">
-        <v>0.9176504957405556</v>
+        <v>1.257701560318667</v>
       </c>
       <c r="R6">
-        <v>8.258854461664999</v>
+        <v>11.319314042868</v>
       </c>
       <c r="S6">
-        <v>0.02128887625578811</v>
+        <v>0.02740556914777571</v>
       </c>
       <c r="T6">
-        <v>0.02128887625578811</v>
+        <v>0.02740556914777571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H7">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I7">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J7">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P7">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q7">
-        <v>13.78501263686645</v>
+        <v>13.78501263686644</v>
       </c>
       <c r="R7">
         <v>124.065113731798</v>
       </c>
       <c r="S7">
-        <v>0.3198030509141645</v>
+        <v>0.3003781890251331</v>
       </c>
       <c r="T7">
-        <v>0.3198030509141646</v>
+        <v>0.3003781890251331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H8">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I8">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J8">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N8">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P8">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q8">
-        <v>6.976319478447223</v>
+        <v>7.860125901651779</v>
       </c>
       <c r="R8">
-        <v>62.786875306025</v>
+        <v>70.741133114866</v>
       </c>
       <c r="S8">
-        <v>0.1618459345762695</v>
+        <v>0.1712737192226759</v>
       </c>
       <c r="T8">
-        <v>0.1618459345762695</v>
+        <v>0.1712737192226759</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2384863333333334</v>
+        <v>0.2384863333333333</v>
       </c>
       <c r="H9">
-        <v>0.7154590000000001</v>
+        <v>0.715459</v>
       </c>
       <c r="I9">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="J9">
-        <v>0.5365002283349843</v>
+        <v>0.5365002283349842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N9">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O9">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P9">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q9">
-        <v>1.446695540354333</v>
+        <v>1.718329804616667</v>
       </c>
       <c r="R9">
-        <v>13.020259863189</v>
+        <v>15.46496824155</v>
       </c>
       <c r="S9">
-        <v>0.03356236658876223</v>
+        <v>0.03744275093939951</v>
       </c>
       <c r="T9">
-        <v>0.03356236658876224</v>
+        <v>0.03744275093939951</v>
       </c>
     </row>
   </sheetData>
